--- a/ExcelConfig/item.道具.xlsx
+++ b/ExcelConfig/item.道具.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A050649-6AA9-449A-8FFB-6A4F69EEAA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,76 +21,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>初始数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>品质</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通宝石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -145,27 +146,27 @@
   </si>
   <si>
     <t>精良宝石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>史诗宝石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>item.lua</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>item.json</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -181,56 +182,145 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>servId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>iniNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>quality</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>servId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:ea&lt;&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>血瓶_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>血瓶_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>血瓶_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>复活石</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血瓶-小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血瓶-中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血瓶-大</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -397,67 +487,73 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -734,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -838,18 +934,18 @@
       <c r="A9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -858,9 +954,10 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -879,8 +976,14 @@
       <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -899,8 +1002,14 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -919,8 +1028,14 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -939,8 +1054,12 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -959,8 +1078,12 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -979,8 +1102,12 @@
       <c r="F6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -999,9 +1126,109 @@
       <c r="F7" s="3">
         <v>4</v>
       </c>
+      <c r="G7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10006</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10007</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
